--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3050317.529426682</v>
+        <v>3047921.8734215</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>375.5014779338403</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.64579790407919</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>60.10129804361812</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>174.5497151491514</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>302.6756160744939</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>166.6677888758701</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>66.12803363640461</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>84.10670378342718</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -1108,16 +1108,16 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>239.5094493590962</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>171.7190043402477</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>60.86538463674616</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.1605539371079</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505419</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242265</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>95.81917536083697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>251.2117044543522</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060473</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>35.41770597126713</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538.7037775204462</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7412605800345</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>169.7412605800345</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>169.7412605800345</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>162.7957598308311</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>988.7937322481667</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>1436.225927159628</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4361,19 +4361,19 @@
         <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845648</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="X2" t="n">
-        <v>925.303617584568</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="Y2" t="n">
-        <v>925.303617584568</v>
+        <v>1261.39869913995</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600624</v>
+        <v>408.1293476730608</v>
       </c>
       <c r="M3" t="n">
-        <v>796.8990041555485</v>
+        <v>672.0688791685486</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.922213775443</v>
+        <v>1313.092088788443</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.650861610862</v>
+        <v>1941.820736623864</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>835.5809402873209</v>
+        <v>112.5082371850602</v>
       </c>
       <c r="C4" t="n">
-        <v>666.644757359414</v>
+        <v>112.5082371850602</v>
       </c>
       <c r="D4" t="n">
-        <v>666.644757359414</v>
+        <v>112.5082371850602</v>
       </c>
       <c r="E4" t="n">
-        <v>518.7316637770209</v>
+        <v>112.5082371850602</v>
       </c>
       <c r="F4" t="n">
-        <v>371.8417162791105</v>
+        <v>112.5082371850602</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702562</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1017.229405117561</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1017.229405117561</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>1017.229405117561</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>1017.229405117561</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="W4" t="n">
-        <v>1017.229405117561</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="X4" t="n">
-        <v>1017.229405117561</v>
+        <v>112.5082371850602</v>
       </c>
       <c r="Y4" t="n">
-        <v>1017.229405117561</v>
+        <v>112.5082371850602</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1482.190706757482</v>
+        <v>1267.145883568225</v>
       </c>
       <c r="C5" t="n">
-        <v>1113.22818981707</v>
+        <v>898.1833666278133</v>
       </c>
       <c r="D5" t="n">
-        <v>754.9624912103197</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="E5" t="n">
-        <v>369.1742386120755</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477382</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="W5" t="n">
-        <v>2258.929878797415</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="X5" t="n">
-        <v>2258.929878797415</v>
+        <v>2043.885055608158</v>
       </c>
       <c r="Y5" t="n">
-        <v>1868.790546821604</v>
+        <v>1653.745723632347</v>
       </c>
     </row>
     <row r="6">
@@ -4629,43 +4629,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>573.7192355186012</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349159</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452984</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>581.6758022633652</v>
+        <v>455.5082205609631</v>
       </c>
       <c r="C7" t="n">
-        <v>581.6758022633652</v>
+        <v>286.5720376330562</v>
       </c>
       <c r="D7" t="n">
-        <v>431.5591628510294</v>
+        <v>286.5720376330562</v>
       </c>
       <c r="E7" t="n">
-        <v>283.6460692686363</v>
+        <v>219.7760440609303</v>
       </c>
       <c r="F7" t="n">
-        <v>136.756121770726</v>
+        <v>219.7760440609303</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>836.360290469252</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="V7" t="n">
-        <v>581.6758022633652</v>
+        <v>972.914941495941</v>
       </c>
       <c r="W7" t="n">
-        <v>581.6758022633652</v>
+        <v>683.4977714589804</v>
       </c>
       <c r="X7" t="n">
-        <v>581.6758022633652</v>
+        <v>455.5082205609631</v>
       </c>
       <c r="Y7" t="n">
-        <v>581.6758022633652</v>
+        <v>455.5082205609631</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1652.934136166469</v>
+        <v>1443.936635928375</v>
       </c>
       <c r="C8" t="n">
-        <v>1283.971619226057</v>
+        <v>1202.007899202015</v>
       </c>
       <c r="D8" t="n">
-        <v>925.7059206193069</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E8" t="n">
-        <v>539.9176680210627</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314552</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135509</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477382</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4817,7 +4817,7 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645556</v>
@@ -4832,22 +4832,22 @@
         <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140985</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140985</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140985</v>
+        <v>1796.705291198489</v>
       </c>
       <c r="W8" t="n">
-        <v>2416.539226403361</v>
+        <v>1443.936635928375</v>
       </c>
       <c r="X8" t="n">
-        <v>2043.073468142281</v>
+        <v>1443.936635928375</v>
       </c>
       <c r="Y8" t="n">
-        <v>1652.934136166469</v>
+        <v>1443.936635928375</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.7998553228197</v>
@@ -4884,16 +4884,16 @@
         <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>598.803157343134</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594485</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
         <v>1987.759237993047</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.1359052451296</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="C10" t="n">
-        <v>558.1997223172227</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="D10" t="n">
-        <v>408.083082904887</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="E10" t="n">
-        <v>260.1699893224938</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F10" t="n">
-        <v>113.2800418245835</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
         <v>51.7998553228197</v>
@@ -4960,16 +4960,16 @@
         <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080543</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4981,31 +4981,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153877</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153877</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153877</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153877</v>
+        <v>836.360290469252</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153877</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.566500116917</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="X10" t="n">
-        <v>1129.576949218899</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.7843700753693</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>414.4022433768874</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>414.4022433768874</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,43 +5984,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6072,22 +6072,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7035232280583</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101294</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122191</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101294</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7988,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>143.390998662501</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083429</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945077</v>
+        <v>359.2821607945059</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>78.54371561234828</v>
+        <v>204.6347509527482</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>148.4266296017855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>299.8549597144494</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.763924374041</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906583</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405077</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>69.70496293143188</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>34.97276993489191</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.0033420516641</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>110.0033420516641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>772587.2664651657</v>
+        <v>772587.2664651653</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731921.4354061165</v>
+        <v>731921.4354061164</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846417</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846417</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="H2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="M2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151604</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695002</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695033</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695075</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695077</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695054</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="N4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695063</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490928.3452029059</v>
+        <v>-490928.3452029084</v>
       </c>
       <c r="C6" t="n">
-        <v>302573.3005079888</v>
+        <v>302573.3005079919</v>
       </c>
       <c r="D6" t="n">
-        <v>475337.6602978843</v>
+        <v>475337.6602978836</v>
       </c>
       <c r="E6" t="n">
-        <v>77775.73163515249</v>
+        <v>77740.99370971702</v>
       </c>
       <c r="F6" t="n">
-        <v>578664.5993809034</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="G6" t="n">
-        <v>578664.5993809036</v>
+        <v>578629.861455468</v>
       </c>
       <c r="H6" t="n">
-        <v>578664.5993809038</v>
+        <v>578629.8614554676</v>
       </c>
       <c r="I6" t="n">
-        <v>578664.5993809039</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="J6" t="n">
-        <v>409250.5825548554</v>
+        <v>409215.8446294196</v>
       </c>
       <c r="K6" t="n">
-        <v>578664.5993809035</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="L6" t="n">
-        <v>578664.5993809035</v>
+        <v>578629.8614554681</v>
       </c>
       <c r="M6" t="n">
-        <v>447780.1424766684</v>
+        <v>447745.4045512327</v>
       </c>
       <c r="N6" t="n">
-        <v>578664.5993809035</v>
+        <v>578629.861455468</v>
       </c>
       <c r="O6" t="n">
-        <v>578664.5993809035</v>
+        <v>578629.861455468</v>
       </c>
       <c r="P6" t="n">
-        <v>578664.5993809039</v>
+        <v>578629.8614554679</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26987,19 +26987,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7.232363729640269</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.641940790965</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>106.5372566391892</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>25.8978092221501</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>104.2004296672176</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>203.0633118025989</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>80.30592901016456</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>82.18972306730234</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>125.7634424119113</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>177.5219643771653</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>105.4310422139834</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>160.3624443994831</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,28 +31671,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>526.2989357561996</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936921</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32792,10 +32792,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>397.4049812900382</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>229.6463482471735</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>322.7581251332982</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>451.9517120317792</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>252.6133731413468</v>
+        <v>378.7044084817479</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>336.9735885949296</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>600.1700598319389</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35036,7 +35036,7 @@
         <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321223</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671851</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025565</v>
+        <v>512.0757230765971</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131502</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656112</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978357</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35343,13 +35343,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9572236728663</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>416.6233618831937</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36440,10 +36440,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>259.5635423156792</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>91.80490927281453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>180.6240912112798</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
